--- a/Documentação/Tabelas Banco de dados.xlsx
+++ b/Documentação/Tabelas Banco de dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsadm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Desktop\Projeto-Integrador-4---DeskOps\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D4C93F2-6F67-4021-9FE8-B5199DBECF2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4150C9C7-3E6A-40D6-8A80-09054600B393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{FFEF2987-F367-4794-9A99-EFB20DF468E5}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FFEF2987-F367-4794-9A99-EFB20DF468E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
-  <si>
-    <t>Tabela: Usuarios</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
   <si>
     <t>User_Id</t>
   </si>
@@ -45,80 +42,188 @@
     <t>cargo</t>
   </si>
   <si>
-    <t>id_departamento</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>descricao</t>
-  </si>
-  <si>
-    <t>id_chamado</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>status_id</t>
-  </si>
-  <si>
-    <t>categoria_id</t>
-  </si>
-  <si>
-    <t>usuario_id</t>
-  </si>
-  <si>
-    <t>birth_date</t>
-  </si>
-  <si>
-    <t>update_date</t>
-  </si>
-  <si>
     <t>Tabela: Chamados</t>
   </si>
   <si>
-    <t>Tabela: Departamentos</t>
-  </si>
-  <si>
-    <t>Tabela: Status</t>
-  </si>
-  <si>
-    <t>id_status</t>
-  </si>
-  <si>
-    <t>Tabela: comentarios</t>
-  </si>
-  <si>
-    <t>id_comentario</t>
-  </si>
-  <si>
-    <t>texto</t>
-  </si>
-  <si>
     <t>User_id</t>
   </si>
   <si>
-    <t>Tabela: Anexos</t>
-  </si>
-  <si>
-    <t>id_anexo</t>
-  </si>
-  <si>
-    <t>arquivo_url</t>
-  </si>
-  <si>
-    <t>chamado_url</t>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>Tipo de dados</t>
+  </si>
+  <si>
+    <t>INT (PK, Auto Increment)</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>ENUM('Admin','Tecnico','Cliente')</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>Chave Primária</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>NOT NULL, UNIQUE</t>
+  </si>
+  <si>
+    <t>DEFAULT TRUE</t>
+  </si>
+  <si>
+    <t>ativo</t>
+  </si>
+  <si>
+    <t>Tipo de dado</t>
+  </si>
+  <si>
+    <t>Restrição</t>
+  </si>
+  <si>
+    <t>Tabela: Usuarios(Users)</t>
+  </si>
+  <si>
+    <t>Tabela: Ambientes(Envirmonmet)</t>
+  </si>
+  <si>
+    <t>Enviroment_id</t>
+  </si>
+  <si>
+    <t>responavel_id(tecnico)</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>INT (FK)</t>
+  </si>
+  <si>
+    <t>Referência → Usuários</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>ativo_id</t>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t>VARCHAR(150)</t>
+  </si>
+  <si>
+    <t>ENUM('Aberto','Aguardando','Em andamento','Realizado','Concluido','Cancelado')</t>
+  </si>
+  <si>
+    <t>resposonavel_id</t>
+  </si>
+  <si>
+    <t>DEFAULT 'Aberto'</t>
+  </si>
+  <si>
+    <t>Referência → Usuários (solicitante)</t>
+  </si>
+  <si>
+    <t>Referência → Usuários (responsável)</t>
+  </si>
+  <si>
+    <t>Referência → Ativos</t>
+  </si>
+  <si>
+    <t>Tipo de  dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Restrição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ativo_id </t>
+  </si>
+  <si>
+    <t>Tabels: Ativos</t>
+  </si>
+  <si>
+    <t>ENUM('Ativo','Em manutencao','Desativado')</t>
+  </si>
+  <si>
+    <t>DEFAULT 'Ativo'</t>
+  </si>
+  <si>
+    <t>Referência → Ambientes</t>
+  </si>
+  <si>
+    <t>Tabela: Comentarios</t>
+  </si>
+  <si>
+    <t>Tipos de dados</t>
+  </si>
+  <si>
+    <t>coment_id</t>
+  </si>
+  <si>
+    <t>chamado_id</t>
+  </si>
+  <si>
+    <t>texto(mensagem)</t>
+  </si>
+  <si>
+    <t>dat_hora</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>Referência → Chamados</t>
+  </si>
+  <si>
+    <t>DEFAULT CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>Tabela: Notificações</t>
+  </si>
+  <si>
+    <t>notifi_id</t>
+  </si>
+  <si>
+    <t>mensagem</t>
+  </si>
+  <si>
+    <t>lida</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>DEFAULT FALSE</t>
+  </si>
+  <si>
+    <t>qrCode</t>
+  </si>
+  <si>
+    <t>boolean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,16 +231,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,21 +276,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,9 +364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -231,7 +404,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -337,7 +510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -479,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -487,180 +660,555 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C240059-42CC-43FC-9ED0-9159EF99736A}">
-  <dimension ref="B3:G30"/>
+  <dimension ref="B2:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G22"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="E3" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="D38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>15</v>
+      <c r="D62" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B22:D22"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentação/Tabelas Banco de dados.xlsx
+++ b/Documentação/Tabelas Banco de dados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Desktop\Projeto-Integrador-4---DeskOps\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsadm\Desktop\Projeto-Integrador4_DeskOps\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4150C9C7-3E6A-40D6-8A80-09054600B393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E973A01-B594-4677-BDD9-9411975E9EE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FFEF2987-F367-4794-9A99-EFB20DF468E5}"/>
   </bookViews>
@@ -123,9 +123,6 @@
     <t>ativo_id</t>
   </si>
   <si>
-    <t>create_date</t>
-  </si>
-  <si>
     <t>VARCHAR(150)</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>boolean</t>
+  </si>
+  <si>
+    <t>creation_date</t>
   </si>
 </sst>
 </file>
@@ -335,9 +335,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,6 +343,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,9 +364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -404,7 +404,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -510,7 +510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -652,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C240059-42CC-43FC-9ED0-9159EF99736A}">
   <dimension ref="B2:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,20 +676,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2"/>
@@ -767,20 +767,20 @@
       <c r="E9" s="3"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="2"/>
@@ -845,26 +845,26 @@
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -878,7 +878,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>16</v>
@@ -901,10 +901,10 @@
         <v>29</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -916,19 +916,19 @@
         <v>27</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="7"/>
     </row>
@@ -940,19 +940,19 @@
         <v>27</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="3"/>
     </row>
@@ -974,26 +974,26 @@
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>40</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
@@ -1027,18 +1027,18 @@
         <v>29</v>
       </c>
       <c r="C40" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D41" s="14"/>
     </row>
@@ -1050,30 +1050,30 @@
         <v>27</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>11</v>
@@ -1084,13 +1084,13 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
@@ -1106,7 +1106,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>26</v>
@@ -1117,36 +1117,36 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D52" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="21" t="s">
+      <c r="C57" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>11</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>16</v>
@@ -1179,24 +1179,24 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Tabelas Banco de dados.xlsx
+++ b/Documentação/Tabelas Banco de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsadm\Desktop\Projeto-Integrador4_DeskOps\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E973A01-B594-4677-BDD9-9411975E9EE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D22F0A2-C559-4743-9F21-6A68B9FB7678}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FFEF2987-F367-4794-9A99-EFB20DF468E5}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>Restrição</t>
   </si>
   <si>
-    <t>Tabela: Usuarios(Users)</t>
-  </si>
-  <si>
     <t>Tabela: Ambientes(Envirmonmet)</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>creation_date</t>
+  </si>
+  <si>
+    <t>Tabela: Usuarios(CustomUsers)</t>
   </si>
 </sst>
 </file>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C240059-42CC-43FC-9ED0-9159EF99736A}">
   <dimension ref="B2:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +677,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -768,7 +768,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -787,7 +787,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -814,20 +814,20 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -864,7 +864,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -878,7 +878,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>16</v>
@@ -889,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>16</v>
@@ -898,61 +898,61 @@
     </row>
     <row r="27" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="3"/>
     </row>
@@ -975,7 +975,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -985,15 +985,15 @@
         <v>9</v>
       </c>
       <c r="C36" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
@@ -1018,44 +1018,44 @@
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="D41" s="14"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
@@ -1065,7 +1065,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>21</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>11</v>
@@ -1084,13 +1084,13 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
@@ -1098,18 +1098,18 @@
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>16</v>
@@ -1117,18 +1117,18 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
@@ -1138,7 +1138,7 @@
         <v>9</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>21</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>11</v>
@@ -1157,21 +1157,21 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>16</v>
@@ -1179,24 +1179,24 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
